--- a/SQ GainTunning Test Result.xlsx
+++ b/SQ GainTunning Test Result.xlsx
@@ -408,12 +408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,21 @@
           <t>총점수</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>MAX</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>그래프</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -546,6 +561,17 @@
       <c r="O2" t="n">
         <v>780</v>
       </c>
+      <c r="P2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-190</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>SaveFig\img_1.png</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -595,6 +621,17 @@
       <c r="O3" t="n">
         <v>998</v>
       </c>
+      <c r="P3" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>SaveFig\img_2.png</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +681,17 @@
       <c r="O4" t="n">
         <v>1195</v>
       </c>
+      <c r="P4" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>99</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>SaveFig\img_3.png</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -693,6 +741,17 @@
       <c r="O5" t="n">
         <v>1200</v>
       </c>
+      <c r="P5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>100</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>SaveFig\img_4.png</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -742,6 +801,17 @@
       <c r="O6" t="n">
         <v>1148</v>
       </c>
+      <c r="P6" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>90</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>SaveFig\img_5.png</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -791,6 +861,17 @@
       <c r="O7" t="n">
         <v>1195</v>
       </c>
+      <c r="P7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>99</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>SaveFig\img_6.png</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -840,6 +921,17 @@
       <c r="O8" t="n">
         <v>1189</v>
       </c>
+      <c r="P8" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>89</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>SaveFig\img_7.png</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -889,6 +981,17 @@
       <c r="O9" t="n">
         <v>1135</v>
       </c>
+      <c r="P9" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>91</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>SaveFig\img_8.png</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -938,6 +1041,17 @@
       <c r="O10" t="n">
         <v>1195</v>
       </c>
+      <c r="P10" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>98</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>SaveFig\img_9.png</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -987,6 +1101,17 @@
       <c r="O11" t="n">
         <v>1200</v>
       </c>
+      <c r="P11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>100</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>SaveFig\img_10.png</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1036,6 +1161,17 @@
       <c r="O12" t="n">
         <v>1140</v>
       </c>
+      <c r="P12" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>90</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>SaveFig\img_11.png</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1085,6 +1221,17 @@
       <c r="O13" t="n">
         <v>1190</v>
       </c>
+      <c r="P13" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>96</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>SaveFig\img_12.png</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1134,6 +1281,17 @@
       <c r="O14" t="n">
         <v>1200</v>
       </c>
+      <c r="P14" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>100</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>SaveFig\img_13.png</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1183,6 +1341,17 @@
       <c r="O15" t="n">
         <v>1139</v>
       </c>
+      <c r="P15" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>90</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>SaveFig\img_14.png</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1232,6 +1401,17 @@
       <c r="O16" t="n">
         <v>1196</v>
       </c>
+      <c r="P16" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>99</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>SaveFig\img_15.png</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1281,6 +1461,17 @@
       <c r="O17" t="n">
         <v>1190</v>
       </c>
+      <c r="P17" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>90</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>SaveFig\img_16.png</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1330,6 +1521,17 @@
       <c r="O18" t="n">
         <v>1101</v>
       </c>
+      <c r="P18" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>80</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>SaveFig\img_17.png</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1379,6 +1581,17 @@
       <c r="O19" t="n">
         <v>1197</v>
       </c>
+      <c r="P19" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>99</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>SaveFig\img_18.png</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1428,6 +1641,17 @@
       <c r="O20" t="n">
         <v>1200</v>
       </c>
+      <c r="P20" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>100</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>SaveFig\img_19.png</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1477,6 +1701,17 @@
       <c r="O21" t="n">
         <v>1141</v>
       </c>
+      <c r="P21" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>90</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>SaveFig\img_20.png</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1526,6 +1761,17 @@
       <c r="O22" t="n">
         <v>1198</v>
       </c>
+      <c r="P22" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>99</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>SaveFig\img_21.png</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1575,6 +1821,17 @@
       <c r="O23" t="n">
         <v>1180</v>
       </c>
+      <c r="P23" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>80</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>SaveFig\img_22.png</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1624,6 +1881,17 @@
       <c r="O24" t="n">
         <v>1057</v>
       </c>
+      <c r="P24" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>72</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>SaveFig\img_23.png</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1673,6 +1941,17 @@
       <c r="O25" t="n">
         <v>1195</v>
       </c>
+      <c r="P25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>99</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>SaveFig\img_24.png</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1722,6 +2001,17 @@
       <c r="O26" t="n">
         <v>1200</v>
       </c>
+      <c r="P26" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>100</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>SaveFig\img_25.png</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1771,6 +2061,17 @@
       <c r="O27" t="n">
         <v>1151</v>
       </c>
+      <c r="P27" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>91</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>SaveFig\img_26.png</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1820,6 +2121,17 @@
       <c r="O28" t="n">
         <v>1196</v>
       </c>
+      <c r="P28" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>98</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>SaveFig\img_27.png</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1869,6 +2181,17 @@
       <c r="O29" t="n">
         <v>1200</v>
       </c>
+      <c r="P29" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>100</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>SaveFig\img_28.png</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1918,6 +2241,17 @@
       <c r="O30" t="n">
         <v>1067</v>
       </c>
+      <c r="P30" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>77</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>SaveFig\img_29.png</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1967,8 +2301,51 @@
       <c r="O31" t="n">
         <v>1188</v>
       </c>
+      <c r="P31" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>96</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>SaveFig\img_30.png</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1"/>
+    <hyperlink ref="R3" r:id="rId2"/>
+    <hyperlink ref="R4" r:id="rId3"/>
+    <hyperlink ref="R5" r:id="rId4"/>
+    <hyperlink ref="R6" r:id="rId5"/>
+    <hyperlink ref="R7" r:id="rId6"/>
+    <hyperlink ref="R8" r:id="rId7"/>
+    <hyperlink ref="R9" r:id="rId8"/>
+    <hyperlink ref="R10" r:id="rId9"/>
+    <hyperlink ref="R11" r:id="rId10"/>
+    <hyperlink ref="R12" r:id="rId11"/>
+    <hyperlink ref="R13" r:id="rId12"/>
+    <hyperlink ref="R14" r:id="rId13"/>
+    <hyperlink ref="R15" r:id="rId14"/>
+    <hyperlink ref="R16" r:id="rId15"/>
+    <hyperlink ref="R17" r:id="rId16"/>
+    <hyperlink ref="R18" r:id="rId17"/>
+    <hyperlink ref="R19" r:id="rId18"/>
+    <hyperlink ref="R20" r:id="rId19"/>
+    <hyperlink ref="R21" r:id="rId20"/>
+    <hyperlink ref="R22" r:id="rId21"/>
+    <hyperlink ref="R23" r:id="rId22"/>
+    <hyperlink ref="R24" r:id="rId23"/>
+    <hyperlink ref="R25" r:id="rId24"/>
+    <hyperlink ref="R26" r:id="rId25"/>
+    <hyperlink ref="R27" r:id="rId26"/>
+    <hyperlink ref="R28" r:id="rId27"/>
+    <hyperlink ref="R29" r:id="rId28"/>
+    <hyperlink ref="R30" r:id="rId29"/>
+    <hyperlink ref="R31" r:id="rId30"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/SQ GainTunning Test Result.xlsx
+++ b/SQ GainTunning Test Result.xlsx
@@ -526,7 +526,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>-190</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -559,13 +559,13 @@
         <v>90</v>
       </c>
       <c r="O2" t="n">
-        <v>780</v>
+        <v>970</v>
       </c>
       <c r="P2" t="n">
         <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>-190</v>
+        <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>

--- a/SQ GainTunning Test Result.xlsx
+++ b/SQ GainTunning Test Result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>총점수</t>
+          <t>점수</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -508,6 +508,11 @@
         </is>
       </c>
       <c r="R1" t="inlineStr">
+        <is>
+          <t>총점</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
         <is>
           <t>그래프</t>
         </is>
@@ -515,7 +520,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +528,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -535,7 +540,7 @@
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -544,7 +549,7 @@
         <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>100</v>
@@ -556,18 +561,21 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O2" t="n">
-        <v>970</v>
+        <v>1200</v>
       </c>
       <c r="P2" t="n">
         <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>100</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3547</v>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>SaveFig\img_1.png</t>
         </is>
@@ -575,7 +583,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -583,51 +591,54 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F3" t="n">
+        <v>97</v>
+      </c>
+      <c r="G3" t="n">
         <v>92</v>
       </c>
-      <c r="G3" t="n">
-        <v>89</v>
-      </c>
       <c r="H3" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="I3" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="J3" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K3" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L3" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="N3" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="O3" t="n">
-        <v>998</v>
+        <v>1151</v>
       </c>
       <c r="P3" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="n">
-        <v>69</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>91</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3547</v>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>SaveFig\img_2.png</t>
         </is>
@@ -635,7 +646,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -643,7 +654,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n">
         <v>99</v>
@@ -664,7 +675,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>99</v>
@@ -673,21 +684,24 @@
         <v>100</v>
       </c>
       <c r="M4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O4" t="n">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="P4" t="n">
         <v>100</v>
       </c>
       <c r="Q4" t="n">
-        <v>99</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>98</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3547</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>SaveFig\img_3.png</t>
         </is>
@@ -747,7 +761,10 @@
       <c r="Q5" t="n">
         <v>100</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" t="n">
+        <v>3543</v>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>SaveFig\img_4.png</t>
         </is>
@@ -807,7 +824,10 @@
       <c r="Q6" t="n">
         <v>90</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" t="n">
+        <v>3543</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>SaveFig\img_5.png</t>
         </is>
@@ -867,7 +887,10 @@
       <c r="Q7" t="n">
         <v>99</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" t="n">
+        <v>3543</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>SaveFig\img_6.png</t>
         </is>
@@ -875,7 +898,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -886,7 +909,7 @@
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -919,15 +942,18 @@
         <v>100</v>
       </c>
       <c r="O8" t="n">
-        <v>1189</v>
+        <v>1200</v>
       </c>
       <c r="P8" t="n">
         <v>100</v>
       </c>
       <c r="Q8" t="n">
-        <v>89</v>
-      </c>
-      <c r="R8" t="inlineStr">
+        <v>100</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3539</v>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>SaveFig\img_7.png</t>
         </is>
@@ -935,7 +961,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -943,19 +969,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D9" t="n">
         <v>99</v>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H9" t="n">
         <v>91</v>
@@ -964,30 +990,33 @@
         <v>94</v>
       </c>
       <c r="J9" t="n">
+        <v>98</v>
+      </c>
+      <c r="K9" t="n">
         <v>97</v>
-      </c>
-      <c r="K9" t="n">
-        <v>92</v>
       </c>
       <c r="L9" t="n">
         <v>93</v>
       </c>
       <c r="M9" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N9" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O9" t="n">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="P9" t="n">
         <v>99</v>
       </c>
       <c r="Q9" t="n">
-        <v>91</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>90</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3539</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>SaveFig\img_8.png</t>
         </is>
@@ -995,7 +1024,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1003,19 +1032,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" t="n">
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -1024,10 +1053,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="n">
         <v>100</v>
@@ -1039,15 +1068,18 @@
         <v>100</v>
       </c>
       <c r="O10" t="n">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="P10" t="n">
         <v>100</v>
       </c>
       <c r="Q10" t="n">
-        <v>98</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>99</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3539</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>SaveFig\img_9.png</t>
         </is>
@@ -1055,7 +1087,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1107,7 +1139,10 @@
       <c r="Q11" t="n">
         <v>100</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" t="n">
+        <v>3535</v>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>SaveFig\img_10.png</t>
         </is>
@@ -1115,7 +1150,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1123,34 +1158,34 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>99</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95</v>
+      </c>
+      <c r="G12" t="n">
         <v>91</v>
-      </c>
-      <c r="D12" t="n">
-        <v>99</v>
-      </c>
-      <c r="E12" t="n">
-        <v>94</v>
-      </c>
-      <c r="F12" t="n">
-        <v>94</v>
-      </c>
-      <c r="G12" t="n">
-        <v>93</v>
       </c>
       <c r="H12" t="n">
         <v>90</v>
       </c>
       <c r="I12" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K12" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L12" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" t="n">
         <v>94</v>
@@ -1159,7 +1194,7 @@
         <v>99</v>
       </c>
       <c r="O12" t="n">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="P12" t="n">
         <v>100</v>
@@ -1167,7 +1202,10 @@
       <c r="Q12" t="n">
         <v>90</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R12" t="n">
+        <v>3535</v>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>SaveFig\img_11.png</t>
         </is>
@@ -1175,7 +1213,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1183,7 +1221,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
         <v>99</v>
@@ -1192,13 +1230,13 @@
         <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
         <v>100</v>
@@ -1207,27 +1245,30 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13" t="n">
         <v>100</v>
       </c>
       <c r="O13" t="n">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="P13" t="n">
         <v>100</v>
       </c>
       <c r="Q13" t="n">
-        <v>96</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>99</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3535</v>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>SaveFig\img_12.png</t>
         </is>
@@ -1235,7 +1276,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1287,7 +1328,10 @@
       <c r="Q14" t="n">
         <v>100</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R14" t="n">
+        <v>3530</v>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>SaveFig\img_13.png</t>
         </is>
@@ -1295,7 +1339,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1303,34 +1347,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F15" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H15" t="n">
         <v>90</v>
       </c>
       <c r="I15" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J15" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L15" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M15" t="n">
         <v>94</v>
@@ -1339,7 +1383,7 @@
         <v>99</v>
       </c>
       <c r="O15" t="n">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="P15" t="n">
         <v>100</v>
@@ -1347,7 +1391,10 @@
       <c r="Q15" t="n">
         <v>90</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R15" t="n">
+        <v>3530</v>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>SaveFig\img_14.png</t>
         </is>
@@ -1355,7 +1402,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1363,7 +1410,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" t="n">
         <v>99</v>
@@ -1372,13 +1419,13 @@
         <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" t="n">
         <v>100</v>
@@ -1387,27 +1434,30 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L16" t="n">
         <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
         <v>100</v>
       </c>
       <c r="O16" t="n">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="P16" t="n">
         <v>100</v>
       </c>
       <c r="Q16" t="n">
-        <v>99</v>
-      </c>
-      <c r="R16" t="inlineStr">
+        <v>96</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3530</v>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>SaveFig\img_15.png</t>
         </is>
@@ -1415,7 +1465,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1426,7 +1476,7 @@
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" t="n">
         <v>100</v>
@@ -1459,15 +1509,18 @@
         <v>100</v>
       </c>
       <c r="O17" t="n">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="P17" t="n">
         <v>100</v>
       </c>
       <c r="Q17" t="n">
-        <v>90</v>
-      </c>
-      <c r="R17" t="inlineStr">
+        <v>89</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3519</v>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>SaveFig\img_16.png</t>
         </is>
@@ -1475,7 +1528,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1483,51 +1536,54 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E18" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F18" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G18" t="n">
+        <v>93</v>
+      </c>
+      <c r="H18" t="n">
+        <v>91</v>
+      </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>97</v>
+      </c>
+      <c r="K18" t="n">
         <v>92</v>
-      </c>
-      <c r="H18" t="n">
-        <v>96</v>
-      </c>
-      <c r="I18" t="n">
-        <v>80</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-      <c r="K18" t="n">
-        <v>97</v>
       </c>
       <c r="L18" t="n">
         <v>93</v>
       </c>
       <c r="M18" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="N18" t="n">
+        <v>99</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1135</v>
+      </c>
+      <c r="P18" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q18" t="n">
         <v>91</v>
       </c>
-      <c r="O18" t="n">
-        <v>1101</v>
-      </c>
-      <c r="P18" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>80</v>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="R18" t="n">
+        <v>3519</v>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>SaveFig\img_17.png</t>
         </is>
@@ -1535,7 +1591,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1543,7 +1599,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" t="n">
         <v>100</v>
@@ -1555,19 +1611,19 @@
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" t="n">
         <v>100</v>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
@@ -1579,15 +1635,18 @@
         <v>100</v>
       </c>
       <c r="O19" t="n">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="P19" t="n">
         <v>100</v>
       </c>
       <c r="Q19" t="n">
-        <v>99</v>
-      </c>
-      <c r="R19" t="inlineStr">
+        <v>98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3519</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>SaveFig\img_18.png</t>
         </is>
@@ -1595,7 +1654,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1606,7 +1665,7 @@
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
@@ -1639,15 +1698,18 @@
         <v>100</v>
       </c>
       <c r="O20" t="n">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="P20" t="n">
         <v>100</v>
       </c>
       <c r="Q20" t="n">
-        <v>100</v>
-      </c>
-      <c r="R20" t="inlineStr">
+        <v>90</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3488</v>
+      </c>
+      <c r="S20" t="inlineStr">
         <is>
           <t>SaveFig\img_19.png</t>
         </is>
@@ -1655,7 +1717,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1663,28 +1725,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D21" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E21" t="n">
+        <v>81</v>
+      </c>
+      <c r="F21" t="n">
         <v>98</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>92</v>
+      </c>
+      <c r="H21" t="n">
         <v>96</v>
       </c>
-      <c r="G21" t="n">
-        <v>90</v>
-      </c>
-      <c r="H21" t="n">
-        <v>91</v>
-      </c>
       <c r="I21" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J21" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
         <v>97</v>
@@ -1693,21 +1755,24 @@
         <v>93</v>
       </c>
       <c r="M21" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N21" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O21" t="n">
-        <v>1141</v>
+        <v>1101</v>
       </c>
       <c r="P21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q21" t="n">
-        <v>90</v>
-      </c>
-      <c r="R21" t="inlineStr">
+        <v>80</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3488</v>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>SaveFig\img_20.png</t>
         </is>
@@ -1715,7 +1780,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1723,13 +1788,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
         <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" t="n">
         <v>100</v>
@@ -1738,7 +1803,7 @@
         <v>99</v>
       </c>
       <c r="H22" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I22" t="n">
         <v>100</v>
@@ -1759,7 +1824,7 @@
         <v>100</v>
       </c>
       <c r="O22" t="n">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="P22" t="n">
         <v>100</v>
@@ -1767,7 +1832,10 @@
       <c r="Q22" t="n">
         <v>99</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R22" t="n">
+        <v>3488</v>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>SaveFig\img_21.png</t>
         </is>
@@ -1775,7 +1843,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1786,7 +1854,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
@@ -1819,15 +1887,18 @@
         <v>100</v>
       </c>
       <c r="O23" t="n">
-        <v>1180</v>
+        <v>1200</v>
       </c>
       <c r="P23" t="n">
         <v>100</v>
       </c>
       <c r="Q23" t="n">
-        <v>80</v>
-      </c>
-      <c r="R23" t="inlineStr">
+        <v>100</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3455</v>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>SaveFig\img_22.png</t>
         </is>
@@ -1835,7 +1906,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1843,51 +1914,54 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E24" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F24" t="n">
+        <v>97</v>
+      </c>
+      <c r="G24" t="n">
+        <v>91</v>
+      </c>
+      <c r="H24" t="n">
+        <v>77</v>
+      </c>
+      <c r="I24" t="n">
         <v>95</v>
       </c>
-      <c r="G24" t="n">
-        <v>93</v>
-      </c>
-      <c r="H24" t="n">
-        <v>94</v>
-      </c>
-      <c r="I24" t="n">
-        <v>79</v>
-      </c>
       <c r="J24" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="K24" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L24" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="M24" t="n">
+        <v>91</v>
+      </c>
+      <c r="N24" t="n">
         <v>78</v>
       </c>
-      <c r="N24" t="n">
-        <v>100</v>
-      </c>
       <c r="O24" t="n">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="P24" t="n">
         <v>100</v>
       </c>
       <c r="Q24" t="n">
-        <v>72</v>
-      </c>
-      <c r="R24" t="inlineStr">
+        <v>77</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3455</v>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>SaveFig\img_23.png</t>
         </is>
@@ -1895,7 +1969,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1903,25 +1977,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H25" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J25" t="n">
         <v>100</v>
@@ -1936,18 +2010,21 @@
         <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O25" t="n">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="P25" t="n">
         <v>100</v>
       </c>
       <c r="Q25" t="n">
-        <v>99</v>
-      </c>
-      <c r="R25" t="inlineStr">
+        <v>96</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3455</v>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>SaveFig\img_24.png</t>
         </is>
@@ -1955,7 +2032,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1966,7 +2043,7 @@
         <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
@@ -1999,15 +2076,18 @@
         <v>100</v>
       </c>
       <c r="O26" t="n">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="P26" t="n">
         <v>100</v>
       </c>
       <c r="Q26" t="n">
-        <v>100</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>80</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3432</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>SaveFig\img_25.png</t>
         </is>
@@ -2015,7 +2095,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2023,51 +2103,54 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D27" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F27" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G27" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I27" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J27" t="n">
         <v>99</v>
       </c>
       <c r="K27" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L27" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M27" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="N27" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O27" t="n">
-        <v>1151</v>
+        <v>1057</v>
       </c>
       <c r="P27" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q27" t="n">
-        <v>91</v>
-      </c>
-      <c r="R27" t="inlineStr">
+        <v>72</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3432</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>SaveFig\img_26.png</t>
         </is>
@@ -2075,7 +2158,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2083,22 +2166,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I28" t="n">
         <v>100</v>
@@ -2116,18 +2199,21 @@
         <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O28" t="n">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P28" t="n">
         <v>100</v>
       </c>
       <c r="Q28" t="n">
-        <v>98</v>
-      </c>
-      <c r="R28" t="inlineStr">
+        <v>99</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3432</v>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>SaveFig\img_27.png</t>
         </is>
@@ -2135,7 +2221,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2143,10 +2229,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>100</v>
@@ -2155,7 +2241,7 @@
         <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -2164,7 +2250,7 @@
         <v>100</v>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
         <v>100</v>
@@ -2176,18 +2262,21 @@
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O29" t="n">
-        <v>1200</v>
+        <v>970</v>
       </c>
       <c r="P29" t="n">
         <v>100</v>
       </c>
       <c r="Q29" t="n">
-        <v>100</v>
-      </c>
-      <c r="R29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3163</v>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>SaveFig\img_28.png</t>
         </is>
@@ -2195,7 +2284,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2203,51 +2292,54 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D30" t="n">
+        <v>79</v>
+      </c>
+      <c r="E30" t="n">
+        <v>80</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92</v>
+      </c>
+      <c r="G30" t="n">
+        <v>89</v>
+      </c>
+      <c r="H30" t="n">
         <v>84</v>
       </c>
-      <c r="E30" t="n">
-        <v>92</v>
-      </c>
-      <c r="F30" t="n">
-        <v>97</v>
-      </c>
-      <c r="G30" t="n">
-        <v>91</v>
-      </c>
-      <c r="H30" t="n">
-        <v>77</v>
-      </c>
       <c r="I30" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="J30" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K30" t="n">
         <v>85</v>
       </c>
       <c r="L30" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M30" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N30" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O30" t="n">
-        <v>1067</v>
+        <v>998</v>
       </c>
       <c r="P30" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Q30" t="n">
-        <v>77</v>
-      </c>
-      <c r="R30" t="inlineStr">
+        <v>69</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3163</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>SaveFig\img_29.png</t>
         </is>
@@ -2255,7 +2347,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2263,28 +2355,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E31" t="n">
         <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K31" t="n">
         <v>99</v>
@@ -2293,21 +2385,24 @@
         <v>100</v>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N31" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" t="n">
-        <v>1188</v>
+        <v>1195</v>
       </c>
       <c r="P31" t="n">
         <v>100</v>
       </c>
       <c r="Q31" t="n">
-        <v>96</v>
-      </c>
-      <c r="R31" t="inlineStr">
+        <v>99</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3163</v>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>SaveFig\img_30.png</t>
         </is>
@@ -2315,36 +2410,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
-    <hyperlink ref="R3" r:id="rId2"/>
-    <hyperlink ref="R4" r:id="rId3"/>
-    <hyperlink ref="R5" r:id="rId4"/>
-    <hyperlink ref="R6" r:id="rId5"/>
-    <hyperlink ref="R7" r:id="rId6"/>
-    <hyperlink ref="R8" r:id="rId7"/>
-    <hyperlink ref="R9" r:id="rId8"/>
-    <hyperlink ref="R10" r:id="rId9"/>
-    <hyperlink ref="R11" r:id="rId10"/>
-    <hyperlink ref="R12" r:id="rId11"/>
-    <hyperlink ref="R13" r:id="rId12"/>
-    <hyperlink ref="R14" r:id="rId13"/>
-    <hyperlink ref="R15" r:id="rId14"/>
-    <hyperlink ref="R16" r:id="rId15"/>
-    <hyperlink ref="R17" r:id="rId16"/>
-    <hyperlink ref="R18" r:id="rId17"/>
-    <hyperlink ref="R19" r:id="rId18"/>
-    <hyperlink ref="R20" r:id="rId19"/>
-    <hyperlink ref="R21" r:id="rId20"/>
-    <hyperlink ref="R22" r:id="rId21"/>
-    <hyperlink ref="R23" r:id="rId22"/>
-    <hyperlink ref="R24" r:id="rId23"/>
-    <hyperlink ref="R25" r:id="rId24"/>
-    <hyperlink ref="R26" r:id="rId25"/>
-    <hyperlink ref="R27" r:id="rId26"/>
-    <hyperlink ref="R28" r:id="rId27"/>
-    <hyperlink ref="R29" r:id="rId28"/>
-    <hyperlink ref="R30" r:id="rId29"/>
-    <hyperlink ref="R31" r:id="rId30"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4"/>
+    <hyperlink ref="S6" r:id="rId5"/>
+    <hyperlink ref="S7" r:id="rId6"/>
+    <hyperlink ref="S8" r:id="rId7"/>
+    <hyperlink ref="S9" r:id="rId8"/>
+    <hyperlink ref="S10" r:id="rId9"/>
+    <hyperlink ref="S11" r:id="rId10"/>
+    <hyperlink ref="S12" r:id="rId11"/>
+    <hyperlink ref="S13" r:id="rId12"/>
+    <hyperlink ref="S14" r:id="rId13"/>
+    <hyperlink ref="S15" r:id="rId14"/>
+    <hyperlink ref="S16" r:id="rId15"/>
+    <hyperlink ref="S17" r:id="rId16"/>
+    <hyperlink ref="S18" r:id="rId17"/>
+    <hyperlink ref="S19" r:id="rId18"/>
+    <hyperlink ref="S20" r:id="rId19"/>
+    <hyperlink ref="S21" r:id="rId20"/>
+    <hyperlink ref="S22" r:id="rId21"/>
+    <hyperlink ref="S23" r:id="rId22"/>
+    <hyperlink ref="S24" r:id="rId23"/>
+    <hyperlink ref="S25" r:id="rId24"/>
+    <hyperlink ref="S26" r:id="rId25"/>
+    <hyperlink ref="S27" r:id="rId26"/>
+    <hyperlink ref="S28" r:id="rId27"/>
+    <hyperlink ref="S29" r:id="rId28"/>
+    <hyperlink ref="S30" r:id="rId29"/>
+    <hyperlink ref="S31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
